--- a/BalanceSheet/MTD_bal.xlsx
+++ b/BalanceSheet/MTD_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>7585000.0</v>
+        <v>298000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>14660000.0</v>
+        <v>292000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-5407000.0</v>
+        <v>300000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-20674000.0</v>
+        <v>292000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>12891000.0</v>
+        <v>274000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>280978000.0</v>
@@ -1610,19 +1610,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>23071000.0</v>
+        <v>176000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-12738000.0</v>
+        <v>147000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-13086000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-15050000.0</v>
+        <v>169000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>33438000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>148220000.0</v>
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-5794000.0</v>
+        <v>-7000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-2420000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-852000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-3718000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>29166000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>39954000.0</v>
